--- a/data/n2v/tables/model-1200-1325-20230828-19.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-19.xlsx
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
